--- a/son/doc/설문조사테이블명세서.xlsx
+++ b/son/doc/설문조사테이블명세서.xlsx
@@ -9,15 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="10275" tabRatio="829" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="10275" tabRatio="829"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스 명세서" sheetId="1" r:id="rId1"/>
     <sheet name="Entity 정의서" sheetId="2" r:id="rId2"/>
-    <sheet name="설문주제 테이블  명세서" sheetId="7" r:id="rId3"/>
-    <sheet name="설문문항 테이블  명세서" sheetId="8" r:id="rId4"/>
-    <sheet name="설문조사 테이블" sheetId="3" r:id="rId5"/>
-    <sheet name="설문 응답 테이블  명세서" sheetId="5" r:id="rId6"/>
+    <sheet name="갤러리 테이블  명세서" sheetId="7" r:id="rId3"/>
+    <sheet name="사진정보 테이블  명세서" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="140">
   <si>
     <t>Table Commend</t>
   </si>
@@ -315,10 +313,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>전은석</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Jennie</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -539,43 +533,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Topic</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문주제 테이블</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.04.23</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>주제번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문제목</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료일</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tpno</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>startdate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>enddate</t>
+    <t>VARCHAR2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -583,24 +541,16 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>S</t>
+    <t>갤러리</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>일련번호,</t>
     </r>
     <r>
       <rPr>
@@ -610,40 +560,136 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>YSDATE</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문문항 테이블</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUEST</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>문항번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>문항내용</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>qno</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>qupno</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>qbody</t>
+      <t xml:space="preserve"> 작성자, 본문, 작성일, 조회수, 상위글번호, 노출여부</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진정보</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호, 글번호, 원이름, 저장이름, 저장경로, 사용여부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>allery</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>갤러리 테이블</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>hoto</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>사진 정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 테이블</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gallery</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.05.13</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>전은석</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>본문</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위글번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>노출여부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gal_no</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gal_writer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gal_wdate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gal_body</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gal_count</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gal_upno</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gal_isshow</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -655,54 +701,22 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>DATE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>NUMBER</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>O</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2022.04.23</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Survey</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 조사 테이블</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.04.23</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>조사번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>주제번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>문항번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>svno</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stno</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqno</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -711,43 +725,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>설문 응답 테이블</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SurveyAnswer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>응답번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>조사번호</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>응답시간</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>sano</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssno</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>adate</t>
+    <t>SYSDATE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -755,31 +737,144 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>10 CHAR</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>EFERENCES member(id)</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK( gal_isshow IN ('Y', 'N')) , 
+Y : 노출, N : 삭제</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHOTO</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 정보 테이블</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>원이름</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장이름</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장경로</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pno</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gno</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dir</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_isshow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo_sname</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo_oname</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 CHAR</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 CHAR</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/photo/</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y: 사용, N : 미사용</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENCES gallery(gal_no)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장시간</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_date</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>DATE</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>10 CHAR</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENCES survey(svno)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENCES member(id)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENCES topic(tpno)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>REFERENCES quest(qno)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
+    <t>SYSDATE</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -787,10 +882,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1585,7 +1679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1646,9 +1740,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1712,9 +1803,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1775,15 +1863,18 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1820,6 +1911,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1859,89 +2004,8 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2251,8 +2315,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:E33"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2263,73 +2327,73 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="52" t="s">
+      <c r="D4" s="73"/>
+      <c r="E4" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="51" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="73"/>
+      <c r="E7" s="50" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="58">
+      <c r="D8" s="71"/>
+      <c r="E8" s="56">
         <v>1521</v>
       </c>
     </row>
     <row r="9" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="59" t="s">
-        <v>49</v>
+      <c r="D9" s="71"/>
+      <c r="E9" s="57" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="59">
+      <c r="D10" s="71"/>
+      <c r="E10" s="57">
         <v>12345</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="53" t="s">
+      <c r="D11" s="66"/>
+      <c r="E11" s="51" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2348,10 +2412,10 @@
       <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="54" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2359,10 +2423,10 @@
       <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="55" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2370,10 +2434,10 @@
       <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="55" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2381,70 +2445,78 @@
       <c r="C17" s="4">
         <v>4</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="55" t="s">
         <v>50</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="4">
         <v>5</v>
       </c>
-      <c r="D18" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>58</v>
+      <c r="D18" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="4">
         <v>6</v>
       </c>
-      <c r="D19" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>59</v>
+      <c r="D19" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="4">
         <v>7</v>
       </c>
-      <c r="D20" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>60</v>
+      <c r="D20" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="4">
         <v>8</v>
       </c>
-      <c r="D21" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>61</v>
+      <c r="D21" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="4">
         <v>9</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="5"/>
+      <c r="D22" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="4">
         <v>10</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
+      <c r="D23" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="4">
@@ -2539,7 +2611,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2550,11 +2622,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
     </row>
     <row r="4" spans="2:4" s="15" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -2571,10 +2643,10 @@
       <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="59" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2582,10 +2654,10 @@
       <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="55" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2593,10 +2665,10 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="55" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2604,70 +2676,78 @@
       <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>52</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>66</v>
+      <c r="C9" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>6</v>
       </c>
-      <c r="C10" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>67</v>
+      <c r="C10" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>68</v>
+      <c r="C11" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>69</v>
+      <c r="C12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -2710,7 +2790,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2721,8 +2801,8 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L10"/>
+    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2743,1618 +2823,552 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="108"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="94"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="80"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="97"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="K6" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="49">
+      <c r="B7" s="47">
         <v>1</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="F7" s="109">
-        <v>4</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>84</v>
+      <c r="C7" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="63">
+        <v>6</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="H7" s="19"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="34"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="50">
+      <c r="B8" s="48">
         <v>2</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="110">
-        <v>4000</v>
+      <c r="C8" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>108</v>
       </c>
       <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="31" t="s">
+        <v>103</v>
+      </c>
       <c r="I8" s="17"/>
-      <c r="J8" s="32" t="s">
-        <v>84</v>
+      <c r="J8" s="31" t="s">
+        <v>104</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="22"/>
+      <c r="M8" s="42" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="50">
+      <c r="B9" s="48">
         <v>3</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="110"/>
+      <c r="C9" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="64">
+        <v>4000</v>
+      </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32" t="s">
-        <v>84</v>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31" t="s">
+        <v>104</v>
       </c>
       <c r="K9" s="17"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="22"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="50">
+      <c r="B10" s="48">
         <v>4</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="110"/>
+      <c r="C10" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="64"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32" t="s">
-        <v>84</v>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31" t="s">
+        <v>104</v>
       </c>
       <c r="K10" s="17"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="22"/>
-      <c r="O10" s="28"/>
+      <c r="L10" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" s="21"/>
+      <c r="O10" s="27"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="50">
+      <c r="B11" s="48">
         <v>5</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="62"/>
+      <c r="C11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="60"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="22"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="17">
+        <v>0</v>
+      </c>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="50">
+      <c r="B12" s="48">
         <v>6</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="62"/>
+      <c r="C12" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="60">
+        <v>6</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="23"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="22"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="44"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="50">
+      <c r="M12" s="42"/>
+    </row>
+    <row r="13" spans="2:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="48">
         <v>7</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="62"/>
+      <c r="C13" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="60">
+        <v>1</v>
+      </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="44"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="108" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="50">
+      <c r="B14" s="48">
         <v>8</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="44"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="50">
+      <c r="B15" s="48">
         <v>9</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="43"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="41"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="50">
+      <c r="B16" s="48">
         <v>10</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="65"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="50">
+      <c r="B17" s="48">
         <v>11</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="65"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="50">
+      <c r="B18" s="48">
         <v>12</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="21"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="44"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="42"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="50">
+      <c r="B19" s="48">
         <v>13</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
-      <c r="M19" s="22"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="50">
+      <c r="B20" s="48">
         <v>14</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
-      <c r="M20" s="22"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="50">
+      <c r="B21" s="48">
         <v>15</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
-      <c r="M21" s="22"/>
+      <c r="M21" s="21"/>
       <c r="P21" s="18"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="50">
+      <c r="B22" s="48">
         <v>16</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="21"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
-      <c r="M22" s="22"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="50">
+      <c r="B23" s="48">
         <v>17</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="45"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="43"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="50">
+      <c r="B24" s="48">
         <v>18</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="45"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="43"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="50">
+      <c r="B25" s="48">
         <v>19</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="21"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="23"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="17"/>
-      <c r="M25" s="22"/>
+      <c r="M25" s="21"/>
     </row>
     <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="51">
+      <c r="B26" s="49">
         <v>20</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="27"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="26"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="102"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88" t="s">
+      <c r="C28" s="104"/>
+      <c r="D28" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="90"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC0504D"/>
-  </sheetPr>
-  <dimension ref="B1:P28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="111" customWidth="1"/>
-    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="1"/>
-    <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
-    </row>
-    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="108"/>
-    </row>
-    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="80"/>
-    </row>
-    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="49">
-        <v>1</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="113">
-        <v>6</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="34"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="50">
-        <v>2</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="114">
-        <v>4000</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="22"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="50">
-        <v>3</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="114">
-        <v>6</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="50">
-        <v>4</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="22"/>
-      <c r="O10" s="28"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="50">
-        <v>5</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="50">
-        <v>6</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="44"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="50">
-        <v>7</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="42"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="50">
-        <v>8</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="44"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="50">
-        <v>9</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="43"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="50">
-        <v>10</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="65"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="50">
-        <v>11</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="65"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="50">
-        <v>12</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="44"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="50">
-        <v>13</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="22"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="50">
-        <v>14</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="22"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="50">
-        <v>15</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="22"/>
-      <c r="P21" s="18"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="50">
-        <v>16</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="22"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="50">
-        <v>17</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="45"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="50">
-        <v>18</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="45"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="50">
-        <v>19</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="22"/>
-    </row>
-    <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="51">
-        <v>20</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="27"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
-    </row>
-    <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="90"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
-  </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2">
-    <tabColor rgb="FFC0504D"/>
-  </sheetPr>
-  <dimension ref="B2:P34"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="10" width="7.625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="1"/>
-    <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="108"/>
-    </row>
-    <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="80"/>
-    </row>
-    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="49">
-        <v>1</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="20">
-        <v>6</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="34"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="50">
-        <v>2</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="62">
-        <v>4</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="44" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="50">
-        <v>3</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="62">
-        <v>6</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="50">
-        <v>4</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="22"/>
-      <c r="O10" s="28"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="50">
-        <v>5</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="50">
-        <v>6</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="44"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="50">
-        <v>7</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="42"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="50">
-        <v>8</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="44"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="50">
-        <v>9</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="43"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="50">
-        <v>10</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="65"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="50">
-        <v>11</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="65"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="50">
-        <v>12</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="44"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="50">
-        <v>13</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="22"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="50">
-        <v>14</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="22"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="50">
-        <v>15</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="22"/>
-      <c r="P21" s="18"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="50">
-        <v>16</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="22"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="50">
-        <v>17</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="45"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="50">
-        <v>18</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="45"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="50">
-        <v>19</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="22"/>
-    </row>
-    <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="51">
-        <v>20</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="27"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
-    </row>
-    <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="90"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4378,15 +3392,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC0504D"/>
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="B1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4407,522 +3421,558 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="93" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="95"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="106"/>
-      <c r="L4" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="108"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="94"/>
     </row>
     <row r="5" spans="2:15" ht="24.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="80"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="97"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="K6" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="46" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="49">
+      <c r="B7" s="47">
         <v>1</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="C7" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="63">
         <v>6</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>84</v>
+      <c r="G7" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="H7" s="19"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="34"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="50">
+      <c r="B8" s="48">
         <v>2</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="62">
+      <c r="C8" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="64">
         <v>6</v>
       </c>
       <c r="G8" s="17"/>
-      <c r="H8" s="32" t="s">
-        <v>97</v>
+      <c r="H8" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="I8" s="17"/>
-      <c r="J8" s="32" t="s">
-        <v>84</v>
+      <c r="J8" s="31" t="s">
+        <v>130</v>
       </c>
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="48">
+        <v>3</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="21"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="48">
+        <v>4</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="50">
-        <v>3</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="50">
-        <v>4</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="62"/>
+      <c r="E10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>129</v>
+      </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32" t="s">
-        <v>84</v>
+      <c r="I10" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="K10" s="17"/>
-      <c r="L10" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" s="22"/>
-      <c r="O10" s="28"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="21"/>
+      <c r="O10" s="27"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="50">
+      <c r="B11" s="48">
         <v>5</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="62"/>
+      <c r="C11" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>128</v>
+      </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="22"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="50">
+      <c r="B12" s="48">
         <v>6</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="62"/>
+      <c r="C12" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="60"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="44"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="M12" s="42"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="50">
+      <c r="B13" s="48">
         <v>7</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="62"/>
+      <c r="C13" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="60">
+        <v>1</v>
+      </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="42"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" s="42" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="50">
+      <c r="B14" s="48">
         <v>8</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="44"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="50">
+      <c r="B15" s="48">
         <v>9</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="65"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="41"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="50">
+      <c r="B16" s="48">
         <v>10</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="43"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="50">
+      <c r="B17" s="48">
         <v>11</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="65"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="50">
+      <c r="B18" s="48">
         <v>12</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="21"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="44"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="42"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="50">
+      <c r="B19" s="48">
         <v>13</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
-      <c r="M19" s="22"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="50">
+      <c r="B20" s="48">
         <v>14</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
-      <c r="M20" s="22"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="50">
+      <c r="B21" s="48">
         <v>15</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
-      <c r="M21" s="22"/>
+      <c r="M21" s="21"/>
       <c r="P21" s="18"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="50">
+      <c r="B22" s="48">
         <v>16</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="21"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
       <c r="L22" s="17"/>
-      <c r="M22" s="22"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="50">
+      <c r="B23" s="48">
         <v>17</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="45"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="43"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="50">
+      <c r="B24" s="48">
         <v>18</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="45"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="43"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="50">
+      <c r="B25" s="48">
         <v>19</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="21"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="23"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="17"/>
-      <c r="M25" s="22"/>
+      <c r="M25" s="21"/>
     </row>
     <row r="26" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="51">
+      <c r="B26" s="49">
         <v>20</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="27"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="26"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="102"/>
     </row>
     <row r="28" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88" t="s">
+      <c r="C28" s="104"/>
+      <c r="D28" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="90"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="13">
